--- a/test.xlsx
+++ b/test.xlsx
@@ -435,12 +435,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>z</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>P&gt;|t|</t>
+          <t>P&gt;|z|</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -477,17 +477,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.218</t>
+          <t xml:space="preserve"> 0.217</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   -2.346</t>
+          <t xml:space="preserve">   -2.342</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0.536</t>
+          <t xml:space="preserve">    0.533</t>
         </is>
       </c>
     </row>
